--- a/Excels/poiDatatest.xlsx
+++ b/Excels/poiDatatest.xlsx
@@ -1360,13 +1360,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A230" sqref="A2:A230"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
@@ -4186,7 +4187,7 @@
         <v>85.331068000000002</v>
       </c>
       <c r="D188">
-        <f>LEN(A188)</f>
+        <f t="shared" ref="D188:D230" si="3">LEN(A188)</f>
         <v>18</v>
       </c>
     </row>
@@ -4201,7 +4202,7 @@
         <v>85.317024000000004</v>
       </c>
       <c r="D189">
-        <f>LEN(A189)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4216,7 +4217,7 @@
         <v>85.317389000000006</v>
       </c>
       <c r="D190">
-        <f>LEN(A190)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4231,7 +4232,7 @@
         <v>85.317912000000007</v>
       </c>
       <c r="D191">
-        <f>LEN(A191)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4246,7 +4247,7 @@
         <v>85.330984999999998</v>
       </c>
       <c r="D192">
-        <f>LEN(A192)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4261,7 +4262,7 @@
         <v>85.328779999999995</v>
       </c>
       <c r="D193">
-        <f>LEN(A193)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4276,7 +4277,7 @@
         <v>85.307164999999998</v>
       </c>
       <c r="D194">
-        <f>LEN(A194)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4291,7 +4292,7 @@
         <v>85.321361109999998</v>
       </c>
       <c r="D195">
-        <f>LEN(A195)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4306,7 +4307,7 @@
         <v>85.312070000000006</v>
       </c>
       <c r="D196">
-        <f>LEN(A196)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4321,7 +4322,7 @@
         <v>85.324881000000005</v>
       </c>
       <c r="D197">
-        <f>LEN(A197)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4336,7 +4337,7 @@
         <v>85.310708000000005</v>
       </c>
       <c r="D198">
-        <f>LEN(A198)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4351,7 +4352,7 @@
         <v>85.309505999999999</v>
       </c>
       <c r="D199">
-        <f>LEN(A199)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4366,7 +4367,7 @@
         <v>85.336174999999997</v>
       </c>
       <c r="D200">
-        <f>LEN(A200)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
@@ -4381,7 +4382,7 @@
         <v>85.326422219999998</v>
       </c>
       <c r="D201">
-        <f>LEN(A201)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4396,7 +4397,7 @@
         <v>85.317249000000004</v>
       </c>
       <c r="D202">
-        <f>LEN(A202)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4411,7 +4412,7 @@
         <v>85.331802999999994</v>
       </c>
       <c r="D203">
-        <f>LEN(A203)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4426,7 +4427,7 @@
         <v>85.318684000000005</v>
       </c>
       <c r="D204">
-        <f>LEN(A204)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4441,7 +4442,7 @@
         <v>85.320728000000003</v>
       </c>
       <c r="D205">
-        <f>LEN(A205)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4456,7 +4457,7 @@
         <v>85.312657000000002</v>
       </c>
       <c r="D206">
-        <f>LEN(A206)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4471,7 +4472,7 @@
         <v>85.302211</v>
       </c>
       <c r="D207">
-        <f>LEN(A207)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4486,7 +4487,7 @@
         <v>85.316863999999995</v>
       </c>
       <c r="D208">
-        <f>LEN(A208)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4501,7 +4502,7 @@
         <v>85.312719000000001</v>
       </c>
       <c r="D209">
-        <f>LEN(A209)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4516,7 +4517,7 @@
         <v>85.348886109999995</v>
       </c>
       <c r="D210">
-        <f>LEN(A210)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4531,7 +4532,7 @@
         <v>85.354744440000005</v>
       </c>
       <c r="D211">
-        <f>LEN(A211)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4546,7 +4547,7 @@
         <v>85.316884999999999</v>
       </c>
       <c r="D212">
-        <f>LEN(A212)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4561,7 +4562,7 @@
         <v>85.307269000000005</v>
       </c>
       <c r="D213">
-        <f>LEN(A213)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4576,7 +4577,7 @@
         <v>85.327549000000005</v>
       </c>
       <c r="D214">
-        <f>LEN(A214)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4591,7 +4592,7 @@
         <v>85.312023999999994</v>
       </c>
       <c r="D215">
-        <f>LEN(A215)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4606,7 +4607,7 @@
         <v>85.316615999999996</v>
       </c>
       <c r="D216">
-        <f>LEN(A216)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
@@ -4621,7 +4622,7 @@
         <v>85.310198</v>
       </c>
       <c r="D217">
-        <f>LEN(A217)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4636,7 +4637,7 @@
         <v>85.325355000000002</v>
       </c>
       <c r="D218">
-        <f>LEN(A218)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4651,7 +4652,7 @@
         <v>85.332198000000005</v>
       </c>
       <c r="D219">
-        <f>LEN(A219)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4666,7 +4667,7 @@
         <v>85.319685000000007</v>
       </c>
       <c r="D220">
-        <f>LEN(A220)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4681,7 +4682,7 @@
         <v>85.326267000000001</v>
       </c>
       <c r="D221">
-        <f>LEN(A221)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4696,7 +4697,7 @@
         <v>85.240734000000003</v>
       </c>
       <c r="D222">
-        <f>LEN(A222)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4711,7 +4712,7 @@
         <v>85.341088889999995</v>
       </c>
       <c r="D223">
-        <f>LEN(A223)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4726,7 +4727,7 @@
         <v>85.332684</v>
       </c>
       <c r="D224">
-        <f>LEN(A224)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4741,7 +4742,7 @@
         <v>85.341691670000003</v>
       </c>
       <c r="D225">
-        <f>LEN(A225)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4756,7 +4757,7 @@
         <v>85.359416670000002</v>
       </c>
       <c r="D226">
-        <f>LEN(A226)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4771,7 +4772,7 @@
         <v>85.34266667</v>
       </c>
       <c r="D227">
-        <f>LEN(A227)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4786,7 +4787,7 @@
         <v>85.322962000000004</v>
       </c>
       <c r="D228">
-        <f>LEN(A228)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4801,7 +4802,7 @@
         <v>85.316913999999997</v>
       </c>
       <c r="D229">
-        <f>LEN(A229)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4816,7 +4817,7 @@
         <v>85.364992999999998</v>
       </c>
       <c r="D230">
-        <f>LEN(A230)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -4832,7 +4833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -7642,7 +7643,7 @@
         <v>85.331068000000002</v>
       </c>
       <c r="D187">
-        <f>LEN(A187)</f>
+        <f t="shared" ref="D187:D229" si="6">LEN(A187)</f>
         <v>18</v>
       </c>
     </row>
@@ -7657,7 +7658,7 @@
         <v>85.317024000000004</v>
       </c>
       <c r="D188">
-        <f>LEN(A188)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7672,7 +7673,7 @@
         <v>85.317389000000006</v>
       </c>
       <c r="D189">
-        <f>LEN(A189)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7687,7 +7688,7 @@
         <v>85.317912000000007</v>
       </c>
       <c r="D190">
-        <f>LEN(A190)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7702,7 +7703,7 @@
         <v>85.330984999999998</v>
       </c>
       <c r="D191">
-        <f>LEN(A191)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7717,7 +7718,7 @@
         <v>85.328779999999995</v>
       </c>
       <c r="D192">
-        <f>LEN(A192)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7732,7 +7733,7 @@
         <v>85.307164999999998</v>
       </c>
       <c r="D193">
-        <f>LEN(A193)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7747,7 +7748,7 @@
         <v>85.321361109999998</v>
       </c>
       <c r="D194">
-        <f>LEN(A194)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7762,7 +7763,7 @@
         <v>85.312070000000006</v>
       </c>
       <c r="D195">
-        <f>LEN(A195)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7777,7 +7778,7 @@
         <v>85.324881000000005</v>
       </c>
       <c r="D196">
-        <f>LEN(A196)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7792,7 +7793,7 @@
         <v>85.310708000000005</v>
       </c>
       <c r="D197">
-        <f>LEN(A197)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7807,7 +7808,7 @@
         <v>85.309505999999999</v>
       </c>
       <c r="D198">
-        <f>LEN(A198)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7822,7 +7823,7 @@
         <v>85.336174999999997</v>
       </c>
       <c r="D199">
-        <f>LEN(A199)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -7837,7 +7838,7 @@
         <v>85.326422219999998</v>
       </c>
       <c r="D200">
-        <f>LEN(A200)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7852,7 +7853,7 @@
         <v>85.317249000000004</v>
       </c>
       <c r="D201">
-        <f>LEN(A201)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7867,7 +7868,7 @@
         <v>85.331802999999994</v>
       </c>
       <c r="D202">
-        <f>LEN(A202)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7882,7 +7883,7 @@
         <v>85.318684000000005</v>
       </c>
       <c r="D203">
-        <f>LEN(A203)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7897,7 +7898,7 @@
         <v>85.320728000000003</v>
       </c>
       <c r="D204">
-        <f>LEN(A204)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7912,7 +7913,7 @@
         <v>85.312657000000002</v>
       </c>
       <c r="D205">
-        <f>LEN(A205)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7927,7 +7928,7 @@
         <v>85.302211</v>
       </c>
       <c r="D206">
-        <f>LEN(A206)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7942,7 +7943,7 @@
         <v>85.316863999999995</v>
       </c>
       <c r="D207">
-        <f>LEN(A207)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7957,7 +7958,7 @@
         <v>85.312719000000001</v>
       </c>
       <c r="D208">
-        <f>LEN(A208)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7972,7 +7973,7 @@
         <v>85.348886109999995</v>
       </c>
       <c r="D209">
-        <f>LEN(A209)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -7987,7 +7988,7 @@
         <v>85.354744440000005</v>
       </c>
       <c r="D210">
-        <f>LEN(A210)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -8002,7 +8003,7 @@
         <v>85.316884999999999</v>
       </c>
       <c r="D211">
-        <f>LEN(A211)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -8017,7 +8018,7 @@
         <v>85.307269000000005</v>
       </c>
       <c r="D212">
-        <f>LEN(A212)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -8032,7 +8033,7 @@
         <v>85.327549000000005</v>
       </c>
       <c r="D213">
-        <f>LEN(A213)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -8047,7 +8048,7 @@
         <v>85.312023999999994</v>
       </c>
       <c r="D214">
-        <f>LEN(A214)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -8062,7 +8063,7 @@
         <v>85.316615999999996</v>
       </c>
       <c r="D215">
-        <f>LEN(A215)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -8077,7 +8078,7 @@
         <v>85.310198</v>
       </c>
       <c r="D216">
-        <f>LEN(A216)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8092,7 +8093,7 @@
         <v>85.325355000000002</v>
       </c>
       <c r="D217">
-        <f>LEN(A217)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8107,7 +8108,7 @@
         <v>85.332198000000005</v>
       </c>
       <c r="D218">
-        <f>LEN(A218)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8122,7 +8123,7 @@
         <v>85.319685000000007</v>
       </c>
       <c r="D219">
-        <f>LEN(A219)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8137,7 +8138,7 @@
         <v>85.326267000000001</v>
       </c>
       <c r="D220">
-        <f>LEN(A220)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8152,7 +8153,7 @@
         <v>85.240734000000003</v>
       </c>
       <c r="D221">
-        <f>LEN(A221)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8167,7 +8168,7 @@
         <v>85.341088889999995</v>
       </c>
       <c r="D222">
-        <f>LEN(A222)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8182,7 +8183,7 @@
         <v>85.332684</v>
       </c>
       <c r="D223">
-        <f>LEN(A223)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8197,7 +8198,7 @@
         <v>85.341691670000003</v>
       </c>
       <c r="D224">
-        <f>LEN(A224)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8212,7 +8213,7 @@
         <v>85.359416670000002</v>
       </c>
       <c r="D225">
-        <f>LEN(A225)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8227,7 +8228,7 @@
         <v>85.34266667</v>
       </c>
       <c r="D226">
-        <f>LEN(A226)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8242,7 +8243,7 @@
         <v>85.322962000000004</v>
       </c>
       <c r="D227">
-        <f>LEN(A227)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8257,7 +8258,7 @@
         <v>85.316913999999997</v>
       </c>
       <c r="D228">
-        <f>LEN(A228)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8272,7 +8273,7 @@
         <v>85.364992999999998</v>
       </c>
       <c r="D229">
-        <f>LEN(A229)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -8285,8 +8286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
